--- a/OUTPUT-FILES/NORMS/TODE_8.27.21_fornorms/rhme_sum_w-raw-ss-lookup-tabbed.xlsx
+++ b/OUTPUT-FILES/NORMS/TODE_8.27.21_fornorms/rhme_sum_w-raw-ss-lookup-tabbed.xlsx
@@ -12,7 +12,10 @@
     <sheet name="5.8-5.11" sheetId="3" r:id="rId3"/>
     <sheet name="6.0-6.5" sheetId="4" r:id="rId4"/>
     <sheet name="6.6-6.11" sheetId="5" r:id="rId5"/>
-    <sheet name="7.0-9.3" sheetId="6" r:id="rId6"/>
+    <sheet name="7.0-7.5" sheetId="6" r:id="rId6"/>
+    <sheet name="7.6-7.11" sheetId="7" r:id="rId7"/>
+    <sheet name="8.0-8.5" sheetId="8" r:id="rId8"/>
+    <sheet name="8.6-9.3" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -356,7 +359,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -379,7 +382,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3">
@@ -387,7 +390,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4">
@@ -395,7 +398,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5">
@@ -403,7 +406,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6">
@@ -411,7 +414,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7">
@@ -419,7 +422,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8">
@@ -427,7 +430,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9">
@@ -435,7 +438,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10">
@@ -443,7 +446,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11">
@@ -451,7 +454,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12">
@@ -483,7 +486,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16">
@@ -491,7 +494,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17">
@@ -499,7 +502,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18">
@@ -507,7 +510,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19">
@@ -611,134 +614,6 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="B46">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="B47">
         <v>130</v>
       </c>
     </row>
@@ -749,7 +624,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -772,7 +647,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3">
@@ -780,7 +655,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4">
@@ -788,7 +663,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5">
@@ -796,7 +671,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6">
@@ -820,7 +695,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9">
@@ -828,7 +703,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10">
@@ -836,7 +711,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11">
@@ -844,7 +719,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12">
@@ -852,7 +727,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13">
@@ -860,7 +735,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14">
@@ -868,7 +743,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15">
@@ -876,7 +751,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16">
@@ -884,7 +759,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>116</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17">
@@ -892,7 +767,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18">
@@ -900,7 +775,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19">
@@ -908,7 +783,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20">
@@ -916,7 +791,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>123</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21">
@@ -924,7 +799,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22">
@@ -932,7 +807,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23">
@@ -940,7 +815,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24">
@@ -1004,134 +879,6 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="B46">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="B47">
         <v>130</v>
       </c>
     </row>
@@ -1142,7 +889,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1165,7 +912,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3">
@@ -1173,7 +920,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4">
@@ -1181,7 +928,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5">
@@ -1189,7 +936,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6">
@@ -1197,7 +944,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7">
@@ -1205,7 +952,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8">
@@ -1213,7 +960,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9">
@@ -1221,7 +968,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10">
@@ -1229,7 +976,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11">
@@ -1237,7 +984,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12">
@@ -1245,7 +992,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13">
@@ -1253,7 +1000,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14">
@@ -1261,7 +1008,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15">
@@ -1269,7 +1016,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>107</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16">
@@ -1277,7 +1024,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17">
@@ -1285,7 +1032,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>111</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18">
@@ -1293,7 +1040,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>113</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19">
@@ -1301,7 +1048,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>114</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20">
@@ -1309,7 +1056,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>116</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21">
@@ -1317,7 +1064,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>118</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22">
@@ -1325,7 +1072,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>119</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23">
@@ -1333,7 +1080,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>121</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24">
@@ -1341,7 +1088,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>122</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25">
@@ -1349,7 +1096,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26">
@@ -1357,7 +1104,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27">
@@ -1365,7 +1112,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28">
@@ -1373,7 +1120,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29">
@@ -1397,134 +1144,6 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="B46">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="B47">
         <v>130</v>
       </c>
     </row>
@@ -1535,7 +1154,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1558,7 +1177,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3">
@@ -1566,7 +1185,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4">
@@ -1574,7 +1193,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5">
@@ -1582,7 +1201,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6">
@@ -1590,7 +1209,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7">
@@ -1598,7 +1217,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8">
@@ -1606,7 +1225,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9">
@@ -1614,7 +1233,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10">
@@ -1622,7 +1241,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11">
@@ -1630,7 +1249,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12">
@@ -1638,7 +1257,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13">
@@ -1646,7 +1265,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14">
@@ -1654,7 +1273,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15">
@@ -1662,7 +1281,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>100</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16">
@@ -1670,7 +1289,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17">
@@ -1678,7 +1297,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>104</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18">
@@ -1686,7 +1305,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>105</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19">
@@ -1694,7 +1313,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>107</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20">
@@ -1702,7 +1321,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>108</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21">
@@ -1710,7 +1329,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>110</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22">
@@ -1718,7 +1337,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>112</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23">
@@ -1726,7 +1345,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>113</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24">
@@ -1734,7 +1353,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>115</v>
+        <v>128</v>
       </c>
     </row>
     <row r="25">
@@ -1742,7 +1361,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>116</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26">
@@ -1750,7 +1369,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>118</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27">
@@ -1758,7 +1377,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>119</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28">
@@ -1766,7 +1385,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>121</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29">
@@ -1774,7 +1393,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>122</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30">
@@ -1782,7 +1401,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>123</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31">
@@ -1790,134 +1409,6 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="B46">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="B47">
         <v>130</v>
       </c>
     </row>
@@ -1928,7 +1419,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1951,7 +1442,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3">
@@ -1959,7 +1450,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4">
@@ -1967,7 +1458,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5">
@@ -1975,7 +1466,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6">
@@ -1983,7 +1474,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7">
@@ -1991,7 +1482,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8">
@@ -1999,7 +1490,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9">
@@ -2007,7 +1498,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10">
@@ -2015,7 +1506,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11">
@@ -2023,7 +1514,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>86</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12">
@@ -2031,7 +1522,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13">
@@ -2039,7 +1530,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14">
@@ -2047,7 +1538,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>92</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15">
@@ -2055,7 +1546,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16">
@@ -2063,7 +1554,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>95</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17">
@@ -2071,7 +1562,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>97</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18">
@@ -2079,7 +1570,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>99</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19">
@@ -2087,7 +1578,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>100</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20">
@@ -2095,7 +1586,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>102</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21">
@@ -2103,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>103</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22">
@@ -2111,7 +1602,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>105</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23">
@@ -2119,7 +1610,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>107</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24">
@@ -2127,7 +1618,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>108</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25">
@@ -2135,7 +1626,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>110</v>
+        <v>125</v>
       </c>
     </row>
     <row r="26">
@@ -2143,7 +1634,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>111</v>
+        <v>127</v>
       </c>
     </row>
     <row r="27">
@@ -2151,7 +1642,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>112</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28">
@@ -2159,7 +1650,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>114</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29">
@@ -2167,7 +1658,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>115</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30">
@@ -2175,7 +1666,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>117</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31">
@@ -2183,134 +1674,6 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="B46">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="B47">
         <v>130</v>
       </c>
     </row>
@@ -2321,7 +1684,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2344,7 +1707,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>57</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3">
@@ -2352,7 +1715,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>60</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4">
@@ -2360,7 +1723,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>63</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5">
@@ -2368,7 +1731,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>66</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
@@ -2376,7 +1739,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>68</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7">
@@ -2384,7 +1747,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>71</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8">
@@ -2392,7 +1755,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>73</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9">
@@ -2400,7 +1763,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10">
@@ -2408,7 +1771,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>78</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11">
@@ -2416,7 +1779,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>80</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12">
@@ -2424,7 +1787,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>83</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13">
@@ -2432,7 +1795,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>85</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14">
@@ -2440,7 +1803,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>87</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15">
@@ -2448,7 +1811,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>89</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16">
@@ -2456,7 +1819,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>91</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17">
@@ -2464,7 +1827,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>93</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18">
@@ -2472,7 +1835,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>95</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19">
@@ -2480,7 +1843,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>97</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20">
@@ -2488,7 +1851,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>98</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21">
@@ -2496,7 +1859,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>100</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22">
@@ -2504,7 +1867,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>102</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23">
@@ -2512,7 +1875,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>104</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24">
@@ -2520,7 +1883,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>105</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25">
@@ -2528,7 +1891,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>107</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26">
@@ -2536,7 +1899,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>109</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27">
@@ -2544,7 +1907,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>110</v>
+        <v>127</v>
       </c>
     </row>
     <row r="28">
@@ -2552,7 +1915,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>112</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29">
@@ -2560,7 +1923,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>114</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30">
@@ -2568,7 +1931,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>115</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31">
@@ -2576,135 +1939,802 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>raw</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>ss</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
         <v>118</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36">
+    <row r="25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>raw</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>ss</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
         <v>124</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="B46">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="B47">
-        <v>130</v>
+    <row r="25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>raw</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>ss</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
